--- a/biology/Zoologie/Ephydra_hians/Ephydra_hians.xlsx
+++ b/biology/Zoologie/Ephydra_hians/Ephydra_hians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephydra hians est une espèce de mouches de l'ordre des diptères vivant en Amérique du Nord, en particulier sur les rives de Mono Lake, en Californie. Mesurant de 4 à 7 mm, cette mouche a la particularité de plonger dans l'eau du lac à quelques mètres de profondeur enveloppée dans une bulle d'air, afin d'aller chercher les algues microscopiques dont elle se nourrit ou de pondre ses œufs. Elle reste en profondeur une quinzaine de minutes avant de remonter sous l'effet de la poussée d'Archimède.
-Le piégeage de l'air a été expliqué en 2017 : la cuticule d'Ephydra hians contient des hydrocarbures de petite masse moléculaire et est recouverte d'une grande densité de soies[1],[2].
+Le piégeage de l'air a été expliqué en 2017 : la cuticule d'Ephydra hians contient des hydrocarbures de petite masse moléculaire et est recouverte d'une grande densité de soies,.
 </t>
         </is>
       </c>
